--- a/2020/Requisition/26.01.2020 Requisition of Mughdo Corporation.xlsx
+++ b/2020/Requisition/26.01.2020 Requisition of Mughdo Corporation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mugdho-Corporation\2020\Requisition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036C11FF-5A1D-43F8-B6F0-0069768B1EA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FE4BED-3D4C-42F7-92B6-5D54E1A52339}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -379,9 +379,6 @@
     <t>D40i</t>
   </si>
   <si>
-    <t>b66</t>
-  </si>
-  <si>
     <t>E95</t>
   </si>
   <si>
@@ -449,6 +446,9 @@
   </si>
   <si>
     <t>26.01.2020</t>
+  </si>
+  <si>
+    <t>B66</t>
   </si>
 </sst>
 </file>
@@ -748,6 +748,15 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -767,15 +776,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1126,7 +1126,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L96" sqref="L96"/>
+      <selection pane="bottomRight" activeCell="K88" sqref="K88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1140,19 +1140,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:74" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="46"/>
+    </row>
+    <row r="2" spans="1:74" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
-    </row>
-    <row r="2" spans="1:74" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="B2" s="47"/>
+      <c r="B2" s="50"/>
       <c r="C2" s="18" t="s">
         <v>64</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>27</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
@@ -1457,13 +1457,13 @@
         <v>769.92</v>
       </c>
       <c r="C8" s="8">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D8" s="10">
         <f t="shared" si="0"/>
-        <v>30796.799999999999</v>
-      </c>
-      <c r="E8" s="48" t="s">
+        <v>15398.4</v>
+      </c>
+      <c r="E8" s="41" t="s">
         <v>92</v>
       </c>
       <c r="F8" s="26"/>
@@ -1574,7 +1574,7 @@
     </row>
     <row r="11" spans="1:74" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="B11" s="9">
         <v>779.96</v>
@@ -1586,7 +1586,7 @@
         <f>C11*B11</f>
         <v>15599.2</v>
       </c>
-      <c r="E11" s="48" t="s">
+      <c r="E11" s="41" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1605,7 +1605,7 @@
         <v>35849.4</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
@@ -1739,17 +1739,19 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:74" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B17" s="9">
         <v>798.99</v>
       </c>
-      <c r="C17" s="8"/>
+      <c r="C17" s="8">
+        <v>40</v>
+      </c>
       <c r="D17" s="10">
         <f>C17*B17</f>
-        <v>0</v>
+        <v>31959.599999999999</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>92</v>
@@ -1915,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -2027,30 +2029,32 @@
         <v>1014.53</v>
       </c>
       <c r="C26" s="8">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D26" s="10">
         <f t="shared" si="0"/>
-        <v>50726.5</v>
+        <v>20290.599999999999</v>
       </c>
       <c r="E26" s="40" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:74" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>89</v>
       </c>
       <c r="B27" s="9">
         <v>907.26</v>
       </c>
-      <c r="C27" s="8"/>
+      <c r="C27" s="8">
+        <v>80</v>
+      </c>
       <c r="D27" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>72580.800000000003</v>
       </c>
       <c r="E27" s="40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
@@ -2237,17 +2241,19 @@
       <c r="BU30" s="26"/>
       <c r="BV30" s="26"/>
     </row>
-    <row r="31" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:74" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B31" s="9">
         <v>2702.42</v>
       </c>
-      <c r="C31" s="8"/>
+      <c r="C31" s="8">
+        <v>5</v>
+      </c>
       <c r="D31" s="10">
         <f>C31*B31</f>
-        <v>0</v>
+        <v>13512.1</v>
       </c>
       <c r="E31" s="11"/>
       <c r="F31" s="26"/>
@@ -2352,20 +2358,22 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:74" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>73</v>
       </c>
       <c r="B34" s="9">
         <v>4885.6000000000004</v>
       </c>
-      <c r="C34" s="8"/>
+      <c r="C34" s="8">
+        <v>15</v>
+      </c>
       <c r="D34" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>73284</v>
       </c>
       <c r="E34" s="40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -2467,22 +2475,20 @@
       <c r="BU36" s="26"/>
       <c r="BV36" s="26"/>
     </row>
-    <row r="37" spans="1:74" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>106</v>
       </c>
       <c r="B37" s="9">
         <v>5412.5</v>
       </c>
-      <c r="C37" s="8">
-        <v>10</v>
-      </c>
+      <c r="C37" s="8"/>
       <c r="D37" s="10">
         <f>C37*B37</f>
-        <v>54125</v>
+        <v>0</v>
       </c>
       <c r="E37" s="40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F37" s="26"/>
       <c r="G37" s="26"/>
@@ -2572,7 +2578,7 @@
     </row>
     <row r="39" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B39" s="9">
         <v>5792.76</v>
@@ -2614,38 +2620,38 @@
       </c>
       <c r="E41" s="8"/>
     </row>
-    <row r="42" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:74" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>61</v>
       </c>
       <c r="B42" s="9">
         <v>5877.96</v>
       </c>
-      <c r="C42" s="8"/>
+      <c r="C42" s="8">
+        <v>15</v>
+      </c>
       <c r="D42" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>88169.4</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:74" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>97</v>
       </c>
       <c r="B43" s="9">
         <v>6306.98</v>
       </c>
-      <c r="C43" s="8">
-        <v>10</v>
-      </c>
+      <c r="C43" s="8"/>
       <c r="D43" s="10">
         <f t="shared" si="0"/>
-        <v>63069.799999999996</v>
-      </c>
-      <c r="E43" s="49" t="s">
-        <v>133</v>
+        <v>0</v>
+      </c>
+      <c r="E43" s="42" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -2784,7 +2790,7 @@
         <f>C52*B52</f>
         <v>56541</v>
       </c>
-      <c r="E52" s="48" t="s">
+      <c r="E52" s="41" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2860,14 +2866,14 @@
         <v>945.36</v>
       </c>
       <c r="C57" s="8">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D57" s="10">
         <f>B57*C57</f>
-        <v>47268</v>
-      </c>
-      <c r="E57" s="50" t="s">
-        <v>120</v>
+        <v>18907.2</v>
+      </c>
+      <c r="E57" s="43" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -2897,17 +2903,19 @@
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>66</v>
       </c>
       <c r="B60" s="9">
         <v>1024.5550000000001</v>
       </c>
-      <c r="C60" s="8"/>
+      <c r="C60" s="8">
+        <v>20</v>
+      </c>
       <c r="D60" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20491.100000000002</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>92</v>
@@ -3028,7 +3036,7 @@
         <v>0</v>
       </c>
       <c r="E68" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="69" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -3584,19 +3592,19 @@
     </row>
     <row r="88" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B88" s="9">
         <v>3520.36</v>
       </c>
       <c r="C88" s="8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D88" s="10">
         <f t="shared" si="2"/>
-        <v>35203.599999999999</v>
-      </c>
-      <c r="E88" s="48" t="s">
+        <v>70407.199999999997</v>
+      </c>
+      <c r="E88" s="41" t="s">
         <v>92</v>
       </c>
       <c r="F88" s="32"/>
@@ -3652,7 +3660,7 @@
     </row>
     <row r="89" spans="1:74" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B89" s="9">
         <v>3793.01</v>
@@ -3850,7 +3858,7 @@
     </row>
     <row r="92" spans="1:74" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B92" s="9">
         <v>7165.02</v>
@@ -3861,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F92" s="32"/>
       <c r="G92" s="32"/>
@@ -3927,7 +3935,7 @@
         <v>0</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="94" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -3946,7 +3954,7 @@
     </row>
     <row r="95" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B95" s="9">
         <v>8101.24</v>
@@ -3957,21 +3965,21 @@
         <v>0</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96" spans="1:74" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A96" s="44" t="s">
+      <c r="A96" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="B96" s="44"/>
+      <c r="B96" s="47"/>
       <c r="C96" s="16">
         <f>SUBTOTAL(9,C7:C95)</f>
-        <v>300</v>
+        <v>385</v>
       </c>
       <c r="D96" s="17">
         <f>SUBTOTAL(9,D7:D95)</f>
-        <v>404397.3</v>
+        <v>548208</v>
       </c>
       <c r="E96" s="31"/>
       <c r="F96" s="33"/>
@@ -4080,11 +4088,11 @@
     </row>
     <row r="98" spans="1:55" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="27"/>
-      <c r="B98" s="45" t="s">
+      <c r="B98" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="C98" s="45"/>
-      <c r="D98" s="45"/>
+      <c r="C98" s="48"/>
+      <c r="D98" s="48"/>
       <c r="E98" s="23"/>
       <c r="G98" s="33"/>
       <c r="H98" s="34"/>
@@ -4128,10 +4136,10 @@
         <v>22</v>
       </c>
       <c r="C101" s="21">
-        <v>500000</v>
+        <v>550000</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G101" s="38"/>
       <c r="H101" s="38"/>
@@ -4183,7 +4191,7 @@
       </c>
       <c r="C105" s="22">
         <f>SUBTOTAL(9,C100:C104)</f>
-        <v>500000</v>
+        <v>550000</v>
       </c>
       <c r="D105" s="15"/>
       <c r="E105" s="23"/>
@@ -4201,7 +4209,7 @@
     </row>
     <row r="108" spans="1:55" x14ac:dyDescent="0.25">
       <c r="D108" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -4235,7 +4243,7 @@
   <sheetData>
     <row r="12" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
